--- a/Data_processing_and_emotion_analysis/filter_data/stage_2_emotion_dict.xlsx
+++ b/Data_processing_and_emotion_analysis/filter_data/stage_2_emotion_dict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,104 +436,156 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>emotion</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>frequency</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>希望</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>7106</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3288596815994076</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>恐慌</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>3817</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1766475379489078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>高兴</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>3360</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1554979637171418</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>伤心</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>2239</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.103619029988893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>6</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>崇敬</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>2110</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09764901888189559</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>4</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>愤怒</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1675</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.07751758607922991</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>3</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>怀疑</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1301</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.06020918178452425</v>
       </c>
     </row>
   </sheetData>
